--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>712.942803042291</v>
+        <v>804.903396582571</v>
       </c>
       <c r="R2">
-        <v>712.942803042291</v>
+        <v>3219.613586330284</v>
       </c>
       <c r="S2">
-        <v>0.1091905523975267</v>
+        <v>0.109012437336549</v>
       </c>
       <c r="T2">
-        <v>0.1091905523975267</v>
+        <v>0.06455578470472288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>182.3885616392175</v>
+        <v>192.447698612554</v>
       </c>
       <c r="R3">
-        <v>182.3885616392175</v>
+        <v>1154.686191675324</v>
       </c>
       <c r="S3">
-        <v>0.02793366832710023</v>
+        <v>0.02606423674522531</v>
       </c>
       <c r="T3">
-        <v>0.02793366832710023</v>
+        <v>0.02315236632985861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>35.55913120880908</v>
+        <v>36.29168607424801</v>
       </c>
       <c r="R4">
-        <v>35.55913120880908</v>
+        <v>217.750116445488</v>
       </c>
       <c r="S4">
-        <v>0.00544604863517456</v>
+        <v>0.004915180095902126</v>
       </c>
       <c r="T4">
-        <v>0.00544604863517456</v>
+        <v>0.00436606110011651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>50.5313484919436</v>
+        <v>51.76862189444001</v>
       </c>
       <c r="R5">
-        <v>50.5313484919436</v>
+        <v>310.6117313666401</v>
       </c>
       <c r="S5">
-        <v>0.0077391143184034</v>
+        <v>0.007011305548253094</v>
       </c>
       <c r="T5">
-        <v>0.0077391143184034</v>
+        <v>0.006228009517043024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>534.7331520354237</v>
+        <v>580.2805951333455</v>
       </c>
       <c r="R6">
-        <v>534.7331520354237</v>
+        <v>3481.683570800073</v>
       </c>
       <c r="S6">
-        <v>0.08189690394077101</v>
+        <v>0.07859055171486021</v>
       </c>
       <c r="T6">
-        <v>0.08189690394077101</v>
+        <v>0.06981049401730378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>87.31565718666909</v>
+        <v>88.70571196861002</v>
       </c>
       <c r="R7">
-        <v>87.31565718666909</v>
+        <v>354.8228478744401</v>
       </c>
       <c r="S7">
-        <v>0.01337280466326542</v>
+        <v>0.01201389621217739</v>
       </c>
       <c r="T7">
-        <v>0.01337280466326542</v>
+        <v>0.007114477176066058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>1396.27258479791</v>
+        <v>1642.947251395262</v>
       </c>
       <c r="R8">
-        <v>1396.27258479791</v>
+        <v>9857.68350837157</v>
       </c>
       <c r="S8">
-        <v>0.2138457309352521</v>
+        <v>0.2225132668720305</v>
       </c>
       <c r="T8">
-        <v>0.2138457309352521</v>
+        <v>0.1976543076335653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>357.2013733932829</v>
+        <v>392.819087129301</v>
       </c>
       <c r="R9">
-        <v>357.2013733932829</v>
+        <v>3535.371784163709</v>
       </c>
       <c r="S9">
-        <v>0.05470707483339884</v>
+        <v>0.05320162183697581</v>
       </c>
       <c r="T9">
-        <v>0.05470707483339884</v>
+        <v>0.07088698492223705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>69.64126692102491</v>
+        <v>74.07761743501202</v>
       </c>
       <c r="R10">
-        <v>69.64126692102491</v>
+        <v>666.698556915108</v>
       </c>
       <c r="S10">
-        <v>0.0106658884447975</v>
+        <v>0.01003273394417424</v>
       </c>
       <c r="T10">
-        <v>0.0106658884447975</v>
+        <v>0.01336783043962033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>98.96381066067761</v>
+        <v>105.66872423586</v>
       </c>
       <c r="R11">
-        <v>98.96381066067761</v>
+        <v>951.0185181227403</v>
       </c>
       <c r="S11">
-        <v>0.01515677429843223</v>
+        <v>0.01431128906661667</v>
       </c>
       <c r="T11">
-        <v>0.01515677429843223</v>
+        <v>0.01906866928590422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>1047.255456094905</v>
+        <v>1184.453206260678</v>
       </c>
       <c r="R12">
-        <v>1047.255456094905</v>
+        <v>10660.0788563461</v>
       </c>
       <c r="S12">
-        <v>0.1603921117716134</v>
+        <v>0.1604169288808821</v>
       </c>
       <c r="T12">
-        <v>0.1603921117716134</v>
+        <v>0.213742965462518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>171.004543187915</v>
+        <v>181.0637230264651</v>
       </c>
       <c r="R13">
-        <v>171.004543187915</v>
+        <v>1086.38233815879</v>
       </c>
       <c r="S13">
-        <v>0.02619015221627469</v>
+        <v>0.02452244312068814</v>
       </c>
       <c r="T13">
-        <v>0.02619015221627469</v>
+        <v>0.02178282034432867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>3.461629559838541</v>
+        <v>1.003569165902333</v>
       </c>
       <c r="R14">
-        <v>3.461629559838541</v>
+        <v>6.021414995414</v>
       </c>
       <c r="S14">
-        <v>0.0005301648915192938</v>
+        <v>0.00013591882115955</v>
       </c>
       <c r="T14">
-        <v>0.0005301648915192938</v>
+        <v>0.0001207341066369384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>0.885571231875241</v>
+        <v>0.2399475231393333</v>
       </c>
       <c r="R15">
-        <v>0.885571231875241</v>
+        <v>2.159527708254</v>
       </c>
       <c r="S15">
-        <v>0.0001356294103582947</v>
+        <v>3.249739588793419E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001356294103582947</v>
+        <v>4.330022906780821E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.1726541584953611</v>
+        <v>0.045249178072</v>
       </c>
       <c r="R16">
-        <v>0.1726541584953611</v>
+        <v>0.407242602648</v>
       </c>
       <c r="S16">
-        <v>2.644279857990278E-05</v>
+        <v>6.128341873133373E-06</v>
       </c>
       <c r="T16">
-        <v>2.644279857990278E-05</v>
+        <v>8.165534488596966E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>0.2453504108489311</v>
+        <v>0.06454612182666668</v>
       </c>
       <c r="R17">
-        <v>0.2453504108489311</v>
+        <v>0.5809150964400001</v>
       </c>
       <c r="S17">
-        <v>3.757657245046312E-05</v>
+        <v>8.741831741326162E-06</v>
       </c>
       <c r="T17">
-        <v>3.757657245046312E-05</v>
+        <v>1.164780458646533E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>2.596348652111517</v>
+        <v>0.7235051005124445</v>
       </c>
       <c r="R18">
-        <v>2.596348652111517</v>
+        <v>6.511545904612001</v>
       </c>
       <c r="S18">
-        <v>0.0003976430399898625</v>
+        <v>9.798822413615627E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003976430399898625</v>
+        <v>0.000130561616865388</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>0.4239533082658425</v>
+        <v>0.1106000021233333</v>
       </c>
       <c r="R19">
-        <v>0.4239533082658425</v>
+        <v>0.6636000127400001</v>
       </c>
       <c r="S19">
-        <v>6.493044844939725E-05</v>
+        <v>1.497915880599122E-05</v>
       </c>
       <c r="T19">
-        <v>6.493044844939725E-05</v>
+        <v>1.330570219183444E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>644.5834881854562</v>
+        <v>4.100908965946</v>
       </c>
       <c r="R20">
-        <v>644.5834881854562</v>
+        <v>24.605453795676</v>
       </c>
       <c r="S20">
-        <v>0.0987210009568181</v>
+        <v>0.0005554083677260513</v>
       </c>
       <c r="T20">
-        <v>0.0987210009568181</v>
+        <v>0.0004933587013484287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>164.9005428834676</v>
+        <v>0.9805033698039999</v>
       </c>
       <c r="R21">
-        <v>164.9005428834676</v>
+        <v>8.824530328235999</v>
       </c>
       <c r="S21">
-        <v>0.02525529578426755</v>
+        <v>0.0001327948951549351</v>
       </c>
       <c r="T21">
-        <v>0.02525529578426755</v>
+        <v>0.0001769387737735371</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H22">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I22">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J22">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>32.1496040546451</v>
+        <v>0.184902811248</v>
       </c>
       <c r="R22">
-        <v>32.1496040546451</v>
+        <v>1.664125301232</v>
       </c>
       <c r="S22">
-        <v>0.004923863472790013</v>
+        <v>2.504239168340566E-05</v>
       </c>
       <c r="T22">
-        <v>0.004923863472790013</v>
+        <v>3.336702116183532E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H23">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I23">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J23">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>45.68623560636432</v>
+        <v>0.26375637944</v>
       </c>
       <c r="R23">
-        <v>45.68623560636432</v>
+        <v>2.37380741496</v>
       </c>
       <c r="S23">
-        <v>0.006997062431285334</v>
+        <v>3.572195857030211E-05</v>
       </c>
       <c r="T23">
-        <v>0.006997062431285334</v>
+        <v>4.759670572309235E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H24">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I24">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J24">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>483.461168156222</v>
+        <v>2.956476398845334</v>
       </c>
       <c r="R24">
-        <v>483.461168156222</v>
+        <v>26.608287589608</v>
       </c>
       <c r="S24">
-        <v>0.07404435782010413</v>
+        <v>0.000400411651304357</v>
       </c>
       <c r="T24">
-        <v>0.07404435782010413</v>
+        <v>0.0005335170941907784</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H25">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I25">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J25">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>78.94354307585326</v>
+        <v>0.45194746486</v>
       </c>
       <c r="R25">
-        <v>78.94354307585326</v>
+        <v>2.71168478916</v>
       </c>
       <c r="S25">
-        <v>0.01209057590579119</v>
+        <v>6.120969907897361E-05</v>
       </c>
       <c r="T25">
-        <v>0.01209057590579119</v>
+        <v>5.437141282398813E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H26">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I26">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J26">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>145.8482094793591</v>
+        <v>763.8531093961667</v>
       </c>
       <c r="R26">
-        <v>145.8482094793591</v>
+        <v>4583.118656377001</v>
       </c>
       <c r="S26">
-        <v>0.02233734107600879</v>
+        <v>0.1034527740545266</v>
       </c>
       <c r="T26">
-        <v>0.02233734107600879</v>
+        <v>0.09189513378669192</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H27">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I27">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J27">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>37.31161185873933</v>
+        <v>182.6328148265623</v>
       </c>
       <c r="R27">
-        <v>37.31161185873933</v>
+        <v>1643.695333439061</v>
       </c>
       <c r="S27">
-        <v>0.005714449311098781</v>
+        <v>0.02473495374278221</v>
       </c>
       <c r="T27">
-        <v>0.005714449311098781</v>
+        <v>0.03295738423895581</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H28">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I28">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J28">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>7.274406299236829</v>
+        <v>34.440800437348</v>
       </c>
       <c r="R28">
-        <v>7.274406299236829</v>
+        <v>309.967203936132</v>
       </c>
       <c r="S28">
-        <v>0.001114109629535878</v>
+        <v>0.004664504604450176</v>
       </c>
       <c r="T28">
-        <v>0.001114109629535878</v>
+        <v>0.006215086235125957</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H29">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I29">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J29">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>10.3373042952091</v>
+        <v>49.12840841660667</v>
       </c>
       <c r="R29">
-        <v>10.3373042952091</v>
+        <v>442.15567574946</v>
       </c>
       <c r="S29">
-        <v>0.001583206901701834</v>
+        <v>0.006653727101535862</v>
       </c>
       <c r="T29">
-        <v>0.001583206901701834</v>
+        <v>0.008865569064201743</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H30">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I30">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J30">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>109.3914861624519</v>
+        <v>550.6861305304399</v>
       </c>
       <c r="R30">
-        <v>109.3914861624519</v>
+        <v>4956.175174773958</v>
       </c>
       <c r="S30">
-        <v>0.01675382197659409</v>
+        <v>0.07458241268633765</v>
       </c>
       <c r="T30">
-        <v>0.01675382197659409</v>
+        <v>0.09937521039792813</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>84.18169707831834</v>
+      </c>
+      <c r="R31">
+        <v>505.09018246991</v>
+      </c>
+      <c r="S31">
+        <v>0.01140118431180346</v>
+      </c>
+      <c r="T31">
+        <v>0.01012745542335768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.5509805</v>
+      </c>
+      <c r="N32">
+        <v>11.101961</v>
+      </c>
+      <c r="O32">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P32">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q32">
+        <v>170.723857987371</v>
+      </c>
+      <c r="R32">
+        <v>682.895431949484</v>
+      </c>
+      <c r="S32">
+        <v>0.02312205905667707</v>
+      </c>
+      <c r="T32">
+        <v>0.01369259052326759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P33">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q33">
+        <v>40.81907680775399</v>
+      </c>
+      <c r="R33">
+        <v>244.914460846524</v>
+      </c>
+      <c r="S33">
+        <v>0.005528349205052188</v>
+      </c>
+      <c r="T33">
+        <v>0.004910727570727659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.250284</v>
+      </c>
+      <c r="N34">
+        <v>0.750852</v>
+      </c>
+      <c r="O34">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P34">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q34">
+        <v>7.697640096648</v>
+      </c>
+      <c r="R34">
+        <v>46.18584057988799</v>
+      </c>
+      <c r="S34">
+        <v>0.001042533193719806</v>
+      </c>
+      <c r="T34">
+        <v>0.0009260624298334786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.07106</v>
+      </c>
+      <c r="O35">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P35">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q35">
+        <v>10.98037216644</v>
+      </c>
+      <c r="R35">
+        <v>65.88223299864001</v>
+      </c>
+      <c r="S35">
+        <v>0.001487131421991997</v>
+      </c>
+      <c r="T35">
+        <v>0.001320990589486937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H31">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J31">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N31">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P31">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q31">
-        <v>17.86234773090739</v>
-      </c>
-      <c r="R31">
-        <v>17.86234773090739</v>
-      </c>
-      <c r="S31">
-        <v>0.002735702790646994</v>
-      </c>
-      <c r="T31">
-        <v>0.002735702790646994</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N36">
+        <v>12.005638</v>
+      </c>
+      <c r="O36">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P36">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q36">
+        <v>123.080288065612</v>
+      </c>
+      <c r="R36">
+        <v>738.481728393672</v>
+      </c>
+      <c r="S36">
+        <v>0.01666943169464004</v>
+      </c>
+      <c r="T36">
+        <v>0.01480713948685113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.611755</v>
+      </c>
+      <c r="N37">
+        <v>1.22351</v>
+      </c>
+      <c r="O37">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P37">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q37">
+        <v>18.81490553661</v>
+      </c>
+      <c r="R37">
+        <v>75.25962214644001</v>
+      </c>
+      <c r="S37">
+        <v>0.002548204815026369</v>
+      </c>
+      <c r="T37">
+        <v>0.00150901461742868</v>
       </c>
     </row>
   </sheetData>
